--- a/medicine/Psychotrope/Dortmunder_Bergmann_Brauerei/Dortmunder_Bergmann_Brauerei.xlsx
+++ b/medicine/Psychotrope/Dortmunder_Bergmann_Brauerei/Dortmunder_Bergmann_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dortmunder Bergmann Brauerei est une brasserie à Dortmund.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1796 par la famille Bergmann dans le quartier de Rahm à Dortmund.
 En 1966, elle emploie 109 personnes et produisait 96 000 hectolitres de bière. Elle est reprise par Dortmunder Ritter-Brauerei en 1972.
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En plus des bières traditionnelles, trois bières sont proposées dans le style des bières artisanales :
 Adambier, une bière forte traditionnelle à fermentation haute dont les racines historiques vont du Moyen Âge aux années 1960
